--- a/Design/doc/数值平衡计算测试.xlsx
+++ b/Design/doc/数值平衡计算测试.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12275" windowHeight="9084"/>
+    <workbookView windowWidth="11520" windowHeight="9084"/>
   </bookViews>
   <sheets>
     <sheet name="科目点数初始化及分数生成" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
   <si>
     <t>LevelBase</t>
   </si>
@@ -120,18 +120,45 @@
     <t>TmpScore=Value*(Rate1*(1-Dependence)+Rate2*(Dependence))</t>
   </si>
   <si>
+    <t>Pressure</t>
+  </si>
+  <si>
+    <t>MaxPressure</t>
+  </si>
+  <si>
+    <t>PressureRate</t>
+  </si>
+  <si>
+    <t>PressureRateBase</t>
+  </si>
+  <si>
+    <t>PressureRateBase2</t>
+  </si>
+  <si>
+    <t>FactorK</t>
+  </si>
+  <si>
+    <t>Rate3=ln((1-Rate)/(1-Base))</t>
+  </si>
+  <si>
+    <t>Rate4=sigmoid(Rate1)*2</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>PressureScore=TmpScore*Rate4</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>K3</t>
+  </si>
+  <si>
     <t>Score=(Sigmoid(TmpScore/K3)-D)/(1-D)*SbjScore</t>
   </si>
   <si>
-    <t>K1</t>
-  </si>
-  <si>
-    <t>K2</t>
-  </si>
-  <si>
-    <t>K3</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
@@ -202,6 +229,12 @@
   </si>
   <si>
     <t>Result</t>
+  </si>
+  <si>
+    <t>Rate1 = ln((1-Rate)/(1-Base))</t>
+  </si>
+  <si>
+    <t>Rate2 = sigmoid(Rate1)*2</t>
   </si>
 </sst>
 </file>
@@ -209,10 +242,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -231,7 +264,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,28 +272,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,13 +294,21 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -290,8 +317,16 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,6 +334,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,17 +362,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,28 +406,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -383,43 +416,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,139 +590,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,22 +610,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,22 +644,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,6 +671,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,8 +702,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,10 +715,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -694,133 +727,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1188,7 +1221,7 @@
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1305,7 +1338,7 @@
       </c>
       <c r="B5" s="1">
         <f ca="1">RANDBETWEEN(-$L$7,$L$7)/100+1</f>
-        <v>0.97</v>
+        <v>1.01</v>
       </c>
       <c r="C5" s="1"/>
       <c r="E5" s="1"/>
@@ -1327,7 +1360,7 @@
       </c>
       <c r="B6" s="1">
         <f ca="1">ROUND((B1*B3+C1*C3+D1*D3)*D4*B5,0)</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
@@ -1351,25 +1384,25 @@
         <v>17</v>
       </c>
       <c r="B8" s="1">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="1">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E8" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="1">
-        <v>2333</v>
+        <v>2000</v>
       </c>
       <c r="G8" t="s">
         <v>20</v>
       </c>
       <c r="H8" s="1">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" t="s">
@@ -1429,30 +1462,30 @@
         <v>2</v>
       </c>
       <c r="B10" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D10" s="1">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E10" s="1">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
       </c>
       <c r="H10" s="1">
         <f>SUMPRODUCT($B$9:$G$9,B10:G10)/SUM($B$9:$G$9)</f>
-        <v>10.9213483146067</v>
+        <v>1.32584269662921</v>
       </c>
       <c r="I10" s="1">
         <f>SUM(B10:G10)</f>
-        <v>72</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1460,19 +1493,19 @@
         <v>23</v>
       </c>
       <c r="B11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -1486,36 +1519,30 @@
         <v>25</v>
       </c>
       <c r="B12" s="1">
-        <f t="shared" ref="B12:G12" si="0">B11*6</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H12" s="1">
         <f>SUMPRODUCT($B$9:$G$9,B12:G12)/SUM($B$9:$G$9)*(1-$D$8)*2</f>
-        <v>8.73707865168539</v>
+        <v>0.530337078651685</v>
       </c>
       <c r="I12" s="1">
         <f>SUM(B12:G12)</f>
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="K12" t="s">
         <v>26</v>
@@ -1526,7 +1553,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
@@ -1556,11 +1583,11 @@
     <row r="15" ht="15" customHeight="1" spans="2:11">
       <c r="B15" s="1">
         <f>MAX(H10/H12*$L$23,$L$27)</f>
-        <v>0.9375</v>
+        <v>1.875</v>
       </c>
       <c r="C15">
         <f>LOG((B13/F8*$L$24+1),2)</f>
-        <v>1.83664967277563</v>
+        <v>1.32192809488736</v>
       </c>
       <c r="K15" t="str">
         <f>"4. 最终结果上下波动，波动范围："&amp;L18&amp;"%"</f>
@@ -1573,7 +1600,7 @@
       </c>
       <c r="C16">
         <f>MAX($B$8*(I10/I12)*$D$8,$L$28)</f>
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="K16" t="s">
         <v>32</v>
@@ -1585,17 +1612,10 @@
       </c>
       <c r="B17">
         <f ca="1">C16*(B15*(1-H8)+C15*H8)*E13</f>
-        <v>307.174379466081</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18">
-        <f ca="1">ROUND(((1/(1+EXP(-B17/L25)))-L26)/(1-L26)*B8,0)</f>
-        <v>296</v>
-      </c>
+        <v>190.734187516847</v>
+      </c>
+    </row>
+    <row r="18" spans="11:12">
       <c r="K18" t="s">
         <v>16</v>
       </c>
@@ -1603,7 +1623,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="11:17">
+    <row r="19" spans="1:17">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>100</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19">
+        <v>100</v>
+      </c>
+      <c r="H19"/>
       <c r="K19" t="s">
         <v>0</v>
       </c>
@@ -1626,7 +1659,32 @@
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="11:17">
+    <row r="20" spans="1:17">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <f>B19/D19</f>
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20">
+        <v>0.25</v>
+      </c>
+      <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20">
+        <v>0.75</v>
+      </c>
+      <c r="G20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
       <c r="K20" t="s">
         <v>21</v>
       </c>
@@ -1649,7 +1707,25 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="11:12">
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21">
+        <f>IF(B20&gt;F20,LN((1-F20)/(1-D20))-(B20-F20)*H20,LN((1-B20)/((1-D20))))</f>
+        <v>-1.34861228866811</v>
+      </c>
+      <c r="H21"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="1">
+        <f>1/(1+EXP(-B21))*2</f>
+        <v>0.412194676448858</v>
+      </c>
+      <c r="H22"/>
       <c r="K22" s="1" t="s">
         <v>3</v>
       </c>
@@ -1659,15 +1735,22 @@
     </row>
     <row r="23" spans="11:12">
       <c r="K23" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="L23" s="1">
         <v>0.75</v>
       </c>
     </row>
-    <row r="24" spans="11:12">
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24">
+        <f ca="1">B17*B22</f>
+        <v>78.6196167112424</v>
+      </c>
       <c r="K24" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="L24" s="1">
         <v>3</v>
@@ -1675,15 +1758,22 @@
     </row>
     <row r="25" spans="11:12">
       <c r="K25" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="L25" s="1">
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="11:12">
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26">
+        <f ca="1">ROUND(((1/(1+EXP(-B24/L25)))-L26)/(1-L26)*B8,0)</f>
+        <v>106</v>
+      </c>
       <c r="K26" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="L26" s="1">
         <v>0.2</v>
@@ -1691,7 +1781,7 @@
     </row>
     <row r="27" spans="11:12">
       <c r="K27" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="L27" s="1">
         <v>0.1</v>
@@ -1699,7 +1789,7 @@
     </row>
     <row r="28" spans="11:12">
       <c r="K28" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="L28" s="1">
         <v>5</v>
@@ -1718,7 +1808,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1734,16 +1824,16 @@
         <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1762,7 +1852,7 @@
         <v>0.936838639495151</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1781,7 +1871,7 @@
         <v>0.859513970899178</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1800,7 +1890,7 @@
         <v>0.910795034036544</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1819,7 +1909,7 @@
         <v>0.784350379892333</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1924,7 +2014,7 @@
     </row>
     <row r="10" spans="9:15">
       <c r="I10" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -1947,10 +2037,10 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1973,10 +2063,10 @@
     </row>
     <row r="15" spans="9:10">
       <c r="I15" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="J15" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="9:10">
@@ -1990,7 +2080,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="I17" t="s">
         <v>3</v>
@@ -2001,7 +2091,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B18" s="1">
         <v>3</v>
@@ -2022,7 +2112,7 @@
         <v>100</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="J18" s="1">
         <v>5</v>
@@ -2030,7 +2120,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
@@ -2051,7 +2141,7 @@
         <v>2000</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="J19" s="1">
         <v>25</v>
@@ -2062,25 +2152,25 @@
         <v>23</v>
       </c>
       <c r="B20" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C20" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D20" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="J20">
         <v>0.7</v>
@@ -2097,10 +2187,10 @@
         <v>200</v>
       </c>
       <c r="D21" s="1">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="E21" s="1">
-        <v>700</v>
+        <v>260</v>
       </c>
       <c r="F21" s="1">
         <v>1800</v>
@@ -2109,7 +2199,7 @@
         <v>3000</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -2117,7 +2207,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
@@ -2132,13 +2222,13 @@
         <v>1</v>
       </c>
       <c r="F22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="J22">
         <v>0.8</v>
@@ -2146,7 +2236,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B23" s="1">
         <f ca="1" t="shared" ref="B23:G23" si="1">RANDBETWEEN(-$J$8,$J$8)/100+1</f>
@@ -2154,162 +2244,162 @@
       </c>
       <c r="C23" s="1">
         <f ca="1" t="shared" si="1"/>
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="D23" s="1">
         <f ca="1" t="shared" si="1"/>
-        <v>1.08</v>
+        <v>0.97</v>
       </c>
       <c r="E23" s="1">
         <f ca="1" t="shared" si="1"/>
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="F23" s="1">
         <f ca="1" t="shared" si="1"/>
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="G23" s="1">
         <f ca="1" t="shared" si="1"/>
-        <v>0.93</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B24" s="1">
         <f t="shared" ref="B24:G24" si="2">B18*(POWER($J$20,B20/$J$18))</f>
-        <v>2.25527593995014</v>
+        <v>3</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="2"/>
-        <v>4.84406625268378</v>
+        <v>6</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="2"/>
-        <v>12.1101656317095</v>
+        <v>15</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="2"/>
-        <v>30.3464057533393</v>
+        <v>35</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="2"/>
-        <v>65.0280123285843</v>
+        <v>75</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="2"/>
-        <v>93.1149915094838</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1"/>
       <c r="B25" s="1">
         <f t="shared" ref="B25:G25" si="3">B24*((1-1/(1+EXP(-SQRT(B21-B19)/$J$19)))*2)</f>
-        <v>1.93844117861992</v>
+        <v>2.57854191269753</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="3"/>
-        <v>3.50936116024806</v>
+        <v>4.34679582464886</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="3"/>
-        <v>9.49861301379039</v>
+        <v>15</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="3"/>
-        <v>18.192166827119</v>
+        <v>32.7893523823303</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="3"/>
-        <v>27.9378538999274</v>
+        <v>32.2220988688211</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="3"/>
-        <v>40.9947388361627</v>
+        <v>44.0259276960654</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1"/>
       <c r="B26" s="1">
         <f t="shared" ref="B26:G26" si="4">B25*(IF(B22,$J$21,$J$22))</f>
-        <v>1.93844117861992</v>
+        <v>2.57854191269753</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="4"/>
-        <v>3.50936116024806</v>
+        <v>4.34679582464886</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="4"/>
-        <v>9.49861301379039</v>
+        <v>15</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="4"/>
-        <v>18.192166827119</v>
+        <v>32.7893523823303</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="4"/>
-        <v>22.3502831199419</v>
+        <v>32.2220988688211</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" si="4"/>
-        <v>32.7957910689302</v>
+        <v>44.0259276960654</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1"/>
       <c r="B27" s="1">
         <f ca="1" t="shared" ref="B27:G27" si="5">B26*B23</f>
-        <v>2.01597882576472</v>
+        <v>2.68168358920543</v>
       </c>
       <c r="C27" s="1">
         <f ca="1" t="shared" si="5"/>
-        <v>3.54445477185054</v>
+        <v>4.5641356158813</v>
       </c>
       <c r="D27" s="1">
         <f ca="1" t="shared" si="5"/>
-        <v>10.2585020548936</v>
+        <v>14.55</v>
       </c>
       <c r="E27" s="1">
         <f ca="1" t="shared" si="5"/>
-        <v>19.8294618415597</v>
+        <v>34.1009264776235</v>
       </c>
       <c r="F27" s="1">
         <f ca="1" t="shared" si="5"/>
-        <v>22.5737859511413</v>
+        <v>35.4443087557032</v>
       </c>
       <c r="G27" s="1">
         <f ca="1" t="shared" si="5"/>
-        <v>30.5000856941051</v>
+        <v>47.5480019117506</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B28" s="1">
         <f ca="1" t="shared" ref="B28:G28" si="6">ROUND(B27,0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28" s="1">
         <f ca="1" t="shared" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" s="1">
         <f ca="1" t="shared" si="6"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E28" s="1">
         <f ca="1" t="shared" si="6"/>
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F28" s="1">
         <f ca="1" t="shared" si="6"/>
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="G28" s="1">
         <f ca="1" t="shared" si="6"/>
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2326,14 +2416,78 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="19.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="14.1111111111111"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2">
+        <f>B1/D1</f>
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2">
+        <v>0.25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2">
+        <v>0.75</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3">
+        <f>IF(B2&gt;F2,LN((1-F2)/(1-D2))-(B2-F2)*H2,LN((1-B2)/((1-D2))))</f>
+        <v>0.287682072451781</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="1">
+        <f>1/(1+EXP(-B3))*2</f>
+        <v>1.14285714285714</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
